--- a/experiments/POLY_YCSB_throughput.xlsx
+++ b/experiments/POLY_YCSB_throughput.xlsx
@@ -421,16 +421,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4.929026162492367</v>
+        <v>77.54098167180408</v>
       </c>
       <c r="B2">
-        <v>4.925801789798048</v>
+        <v>110.80332568671315</v>
       </c>
       <c r="C2">
-        <v>4.93437015474875</v>
+        <v>133.06020578588303</v>
       </c>
       <c r="D2">
-        <v>4.911463038337778</v>
+        <v>143.2973891255461</v>
       </c>
     </row>
   </sheetData>
